--- a/medicine/Soins infirmiers et profession infirmière/1822_en_santé_et_médecine/1822_en_santé_et_médecine.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/1822_en_santé_et_médecine/1822_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1822_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1822_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1821 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1822_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1822_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Un trappeur canadien, Alexis Saint-Martin, est grièvement blessé au ventre dans un accident. Il en garde une fistule permettant de voir l'intérieur de son estomac. Un chirurgien militaire, William Beaumont, le soignera et le gardera, contre rémunération et en échange d'autres services, pour observer ce qui s'y passe[1].
-Épidémies
-Mai : une épidémie de choléra met un terme à l'expansion des armées du chah de Perse Fath Ali Shah Qajar dans la région du Kurdistan et de l’Anatolie orientale[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Un trappeur canadien, Alexis Saint-Martin, est grièvement blessé au ventre dans un accident. Il en garde une fistule permettant de voir l'intérieur de son estomac. Un chirurgien militaire, William Beaumont, le soignera et le gardera, contre rémunération et en échange d'autres services, pour observer ce qui s'y passe.</t>
         </is>
       </c>
     </row>
@@ -525,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1822_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1822_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,10 +552,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épidémies</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mai : une épidémie de choléra met un terme à l'expansion des armées du chah de Perse Fath Ali Shah Qajar dans la région du Kurdistan et de l’Anatolie orientale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1822_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1822_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>8 mars :
 Charles Frédéric Girard (mort en 1895), médecin et zoologiste américain d'origine française.
@@ -552,31 +602,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1822_en_sant%C3%A9_et_m%C3%A9decine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1822_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/1822_en_sant%C3%A9_et_m%C3%A9decine</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 février : Guillaume Laënnec (né en 1748), médecin français, oncle de René Laënnec (1881-1826).</t>
         </is>
